--- a/ENRIQUEZ, ANABEL ORTEGA.xlsx
+++ b/ENRIQUEZ, ANABEL ORTEGA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C11A6F-E9A7-4FD5-AAFE-0C50A29FDA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF1123-B042-4601-BAE8-9BD67CB2CF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>9/28,29/2022</t>
+  </si>
+  <si>
+    <t>12/15-16,27-29</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,9 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -548,10 +548,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -560,13 +560,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -613,6 +610,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,12 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2686,20 +2683,20 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A41" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -2707,101 +2704,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="51"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="57">
         <v>43647</v>
       </c>
       <c r="G3" s="52"/>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="51"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="52"/>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28" t="s">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
@@ -2814,13 +2802,13 @@
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2847,2189 +2835,2207 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.75</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
+        <v>35.5</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.75</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
+        <v>45.5</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="36" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="40">
         <v>43647</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="40">
         <v>43678</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="A13" s="40">
         <v>43709</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="40">
         <v>43739</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="40">
         <v>43770</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="40">
         <v>43800</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="44">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="40">
         <v>43831</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="40">
         <v>43862</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="40">
         <v>43891</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="41">
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="39">
         <v>2</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="40">
         <v>43922</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="40">
         <v>43952</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
+      <c r="A23" s="40">
         <v>43983</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="40">
         <v>44013</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
+      <c r="A25" s="40">
         <v>44044</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="40">
         <v>44075</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="42">
+      <c r="A27" s="40">
         <v>44105</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="40">
         <v>44136</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+      <c r="A29" s="40">
         <v>44166</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="41">
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="39">
         <v>5</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="42">
+      <c r="A31" s="40">
         <v>44197</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="40">
         <v>44228</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H32" s="41">
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="39">
         <v>1</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="62">
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="49">
         <v>44241</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H33" s="41">
+      <c r="C33" s="13"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39">
         <v>1</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="62">
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="49">
         <v>44250</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="40">
         <v>44256</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D34" s="41">
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39">
         <v>2</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="21" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="42">
+      <c r="A35" s="40">
         <v>44287</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="40">
         <v>44317</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="42">
+      <c r="A37" s="40">
         <v>44348</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="40">
         <v>44378</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="40">
         <v>44409</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="40">
         <v>44440</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="42">
+      <c r="A41" s="40">
         <v>44470</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="40">
         <v>44501</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="42">
+      <c r="A43" s="40">
         <v>44531</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="41">
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="39">
         <v>3</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="42">
+      <c r="A45" s="40">
         <v>44562</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="21" t="s">
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="40">
         <v>44593</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="42">
+      <c r="A47" s="40">
         <v>44621</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="40">
         <v>44652</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="42">
+      <c r="A49" s="40">
         <v>44682</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="40">
         <v>44713</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H50" s="41">
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H50" s="39">
         <v>3</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21" t="s">
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="42">
+      <c r="A51" s="40">
         <v>44743</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21" t="s">
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="40">
         <v>44774</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="42">
+      <c r="A53" s="40">
         <v>44805</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="41">
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="39">
         <v>2</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21" t="s">
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="A54" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="A55" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="A56" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="39">
+        <v>5</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="39"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="21"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="39"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="39"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="39"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="39"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="39"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="41"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="41"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="39"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="39"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="42"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="39"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="42"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="42"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="39"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="42"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="41"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="42"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="41"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="41"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="41"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="41"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="42"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="41"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="42"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="39"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="42"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="41"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="21"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="42"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="41"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="21"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="42"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="41"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
+      <c r="A114" s="40"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="39"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="42"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="41"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="39"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="41"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="42"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="41"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="21"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="41"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="41"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="39"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="42"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="41"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="42"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="41"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
+      <c r="A121" s="40"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="42"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="39"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="42"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="41"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
+      <c r="A123" s="40"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="41"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="42"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="41"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
+      <c r="A125" s="40"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="42"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="41"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="42"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="41"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="21"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="42"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="41"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="45"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="43"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5089,7 +5095,7 @@
     <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5107,10 +5113,10 @@
       <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5122,7 +5128,7 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -5131,32 +5137,32 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="47">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="37">
+      <c r="J3" s="47"/>
+      <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="47" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="35"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
@@ -5166,19 +5172,19 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="46"/>
       <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
@@ -5187,951 +5193,951 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="46"/>
+      <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>0.25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.375</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="39">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.125</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>0.125</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="39">
+      <c r="C11" s="37">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>0.625</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>1.2E-2</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0.75</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="36">
         <v>0.20800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>0.875</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>0.25</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>0.25</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>8</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>9</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>0.33299999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>10</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>2.1000000000000005E-2</v>
       </c>
       <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="36">
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>2.3000000000000007E-2</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>0.41699999999999993</v>
       </c>
     </row>
     <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>12</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="36">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>0.45799999999999991</v>
       </c>
     </row>
     <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <v>13</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>2.700000000000001E-2</v>
       </c>
       <c r="G19"/>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="36">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="36">
         <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="39">
+      <c r="C20" s="37">
         <v>14</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>2.9000000000000012E-2</v>
       </c>
       <c r="G20"/>
       <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="36">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="36">
         <v>0.54199999999999993</v>
       </c>
     </row>
     <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>15</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>3.1000000000000014E-2</v>
       </c>
       <c r="G21"/>
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <v>16</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="1">
         <v>15</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>0.625</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="36">
         <v>0.625</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="36">
         <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <v>17</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="39">
+      <c r="C24" s="37">
         <v>18</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G24"/>
       <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>0.70800000000000007</v>
       </c>
     </row>
     <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="39">
+      <c r="C25" s="37">
         <v>19</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>0.04</v>
       </c>
       <c r="G25"/>
       <c r="I25" s="1">
         <v>18</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="36">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="36">
         <v>0.75000000000000011</v>
       </c>
     </row>
     <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="39">
+      <c r="C26" s="37">
         <v>20</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="1">
         <v>19</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <v>0.79200000000000015</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="39">
+      <c r="C27" s="37">
         <v>21</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="1">
         <v>20</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="33">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <v>0.83300000000000018</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="39">
+      <c r="C28" s="37">
         <v>22</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="1">
         <v>21</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>0.87500000000000022</v>
       </c>
     </row>
     <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="39">
+      <c r="C29" s="37">
         <v>23</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="G29"/>
       <c r="I29" s="1">
         <v>22</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <v>0.91700000000000026</v>
       </c>
     </row>
     <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="39">
+      <c r="C30" s="37">
         <v>24</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5.000000000000001E-2</v>
       </c>
       <c r="G30"/>
       <c r="I30" s="1">
         <v>23</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="36">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="36">
         <v>0.9580000000000003</v>
       </c>
     </row>
     <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="39">
+      <c r="C31" s="37">
         <v>25</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>5.2000000000000011E-2</v>
       </c>
       <c r="G31"/>
       <c r="I31" s="1">
         <v>24</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>5.4000000000000013E-2</v>
       </c>
       <c r="G32"/>
       <c r="I32" s="1">
         <v>25</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="36">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="36">
         <v>1.0420000000000003</v>
       </c>
     </row>
     <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>27</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="G33"/>
       <c r="I33" s="1">
         <v>26</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="36">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <v>1.0830000000000002</v>
       </c>
     </row>
     <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="39">
+      <c r="C34" s="37">
         <v>28</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>5.8000000000000017E-2</v>
       </c>
       <c r="G34"/>
       <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="36">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="36">
         <v>1.1250000000000002</v>
       </c>
     </row>
     <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="39">
+      <c r="C35" s="37">
         <v>29</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>6.0000000000000019E-2</v>
       </c>
       <c r="G35"/>
       <c r="I35" s="1">
         <v>28</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="36">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <v>1.1670000000000003</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="39">
+      <c r="C36" s="37">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>6.200000000000002E-2</v>
       </c>
       <c r="G36"/>
       <c r="I36" s="1">
         <v>29</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="36">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <v>1.2080000000000002</v>
       </c>
     </row>
     <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="39">
+      <c r="C37" s="37">
         <v>31</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G37"/>
       <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="36">
         <v>1.2500000000000002</v>
       </c>
     </row>
     <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="39">
+      <c r="C38" s="37">
         <v>32</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="39">
+      <c r="C39" s="37">
         <v>33</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="39">
+      <c r="C40" s="37">
         <v>34</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="39">
+      <c r="C41" s="37">
         <v>35</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="G41"/>
     </row>
     <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="39">
+      <c r="C42" s="37">
         <v>36</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G42"/>
     </row>
     <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="39">
+      <c r="C43" s="37">
         <v>37</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G43"/>
     </row>
     <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="39">
+      <c r="C44" s="37">
         <v>38</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>7.9000000000000015E-2</v>
       </c>
       <c r="G44"/>
     </row>
     <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="39">
+      <c r="C45" s="37">
         <v>39</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>8.1000000000000016E-2</v>
       </c>
       <c r="G45"/>
     </row>
     <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="39">
+      <c r="C46" s="37">
         <v>40</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="33">
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="G46"/>
     </row>
     <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="39">
+      <c r="C47" s="37">
         <v>41</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>8.500000000000002E-2</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="39">
+      <c r="C48" s="37">
         <v>42</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="33">
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="G48"/>
     </row>
     <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="39">
+      <c r="C49" s="37">
         <v>43</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>0.09</v>
       </c>
       <c r="G49"/>
     </row>
     <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="39">
+      <c r="C50" s="37">
         <v>44</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G50"/>
     </row>
     <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="39">
+      <c r="C51" s="37">
         <v>45</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>9.4E-2</v>
       </c>
       <c r="G51"/>
     </row>
     <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="39">
+      <c r="C52" s="37">
         <v>46</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="39">
+      <c r="C53" s="37">
         <v>47</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="39">
+      <c r="C54" s="37">
         <v>48</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="33">
         <v>0.1</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="39">
+      <c r="C55" s="37">
         <v>49</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>0.10200000000000001</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="39">
+      <c r="C56" s="37">
         <v>50</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>0.10400000000000001</v>
       </c>
       <c r="G56"/>
     </row>
     <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="39">
+      <c r="C57" s="37">
         <v>51</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>0.10600000000000001</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="39">
+      <c r="C58" s="37">
         <v>52</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="33">
         <v>0.10800000000000001</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="39">
+      <c r="C59" s="37">
         <v>53</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>0.11000000000000001</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="39">
+      <c r="C60" s="37">
         <v>54</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>0.11200000000000002</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="39">
+      <c r="C61" s="37">
         <v>55</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>0.115</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="39">
+      <c r="C62" s="37">
         <v>56</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="33">
         <v>0.11700000000000001</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="39">
+      <c r="C63" s="37">
         <v>57</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>0.11900000000000001</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="39">
+      <c r="C64" s="37">
         <v>58</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="33">
         <v>0.12100000000000001</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39">
+      <c r="C65" s="37">
         <v>59</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>0.12300000000000001</v>
       </c>
       <c r="G65"/>
     </row>
     <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="39">
+      <c r="C66" s="37">
         <v>60</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="33">
         <v>0.125</v>
       </c>
       <c r="G66"/>

--- a/ENRIQUEZ, ANABEL ORTEGA.xlsx
+++ b/ENRIQUEZ, ANABEL ORTEGA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF1123-B042-4601-BAE8-9BD67CB2CF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -235,12 +234,15 @@
   </si>
   <si>
     <t>12/15-16,27-29</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -471,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,6 +650,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,7 +886,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -929,7 +933,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -972,7 +976,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,7 +1040,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1100,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1166,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1229,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1327,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1386,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1451,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1494,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1569,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1755,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1821,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1879,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1945,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2001,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2076,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2119,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2185,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2241,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,25 +2337,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2658,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2668,7 +2672,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2676,34 +2680,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2724,7 +2728,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2766,7 +2770,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2774,7 +2778,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2787,7 +2791,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2804,7 +2808,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2848,7 +2852,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.5</v>
+        <v>36.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2858,12 +2862,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.5</v>
+        <v>45.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2885,7 +2889,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -2905,7 +2909,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -2925,7 +2929,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -2945,7 +2949,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -2985,7 +2989,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3005,7 +3009,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -3023,7 +3027,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3043,7 +3047,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3063,7 +3067,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3109,7 +3113,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3129,7 +3133,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3149,7 +3153,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3169,7 +3173,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3189,7 +3193,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3209,7 +3213,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3229,7 +3233,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3249,7 +3253,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3273,7 +3277,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3291,7 +3295,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>51</v>
@@ -3359,7 +3363,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44256</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44287</v>
       </c>
@@ -3405,7 +3409,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44317</v>
       </c>
@@ -3425,7 +3429,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44348</v>
       </c>
@@ -3445,7 +3449,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -3465,7 +3469,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44409</v>
       </c>
@@ -3485,7 +3489,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44440</v>
       </c>
@@ -3505,7 +3509,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44470</v>
       </c>
@@ -3525,7 +3529,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44501</v>
       </c>
@@ -3545,7 +3549,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44531</v>
       </c>
@@ -3569,7 +3573,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3591,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44562</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44593</v>
       </c>
@@ -3631,7 +3635,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44621</v>
       </c>
@@ -3651,7 +3655,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44652</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
@@ -3691,7 +3695,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44713</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44743</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44774</v>
       </c>
@@ -3761,7 +3765,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44805</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44835</v>
       </c>
@@ -3807,7 +3811,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44866</v>
       </c>
@@ -3827,7 +3831,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44896</v>
       </c>
@@ -3853,8 +3857,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -3869,23 +3875,33 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="61">
+        <v>44927</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H58" s="39"/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="39">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="49">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3901,7 +3917,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3917,7 +3933,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3933,7 +3949,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3949,7 +3965,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3965,7 +3981,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3981,7 +3997,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -3997,7 +4013,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4013,7 +4029,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4029,7 +4045,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4045,7 +4061,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4061,7 +4077,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4077,7 +4093,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4093,7 +4109,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4109,7 +4125,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4125,7 +4141,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4141,7 +4157,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4157,7 +4173,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4173,7 +4189,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4189,7 +4205,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4205,7 +4221,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4221,7 +4237,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4237,7 +4253,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4253,7 +4269,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4269,7 +4285,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4285,7 +4301,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4301,7 +4317,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4317,7 +4333,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4333,7 +4349,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4349,7 +4365,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4365,7 +4381,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4381,7 +4397,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4397,7 +4413,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4413,7 +4429,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4429,7 +4445,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4445,7 +4461,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4461,7 +4477,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4477,7 +4493,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4493,7 +4509,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4509,7 +4525,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4525,7 +4541,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4541,7 +4557,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4557,7 +4573,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4573,7 +4589,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4589,7 +4605,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4605,7 +4621,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4621,7 +4637,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4637,7 +4653,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4653,7 +4669,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4669,7 +4685,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4685,7 +4701,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4701,7 +4717,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4717,7 +4733,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4733,7 +4749,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4749,7 +4765,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4765,7 +4781,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4781,7 +4797,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4797,7 +4813,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4813,7 +4829,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4829,7 +4845,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4845,7 +4861,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4861,7 +4877,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4877,7 +4893,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4893,7 +4909,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4909,7 +4925,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4925,7 +4941,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4941,7 +4957,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4957,7 +4973,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4973,7 +4989,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4989,7 +5005,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5005,7 +5021,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5021,7 +5037,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -5052,10 +5068,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5078,28 +5094,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5112,7 +5128,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5141,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5161,17 +5177,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5192,7 +5208,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5219,7 +5235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5245,7 +5261,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5271,7 +5287,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5297,7 +5313,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5323,7 +5339,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5349,7 +5365,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5375,7 +5391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5401,7 +5417,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5421,7 +5437,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5441,7 +5457,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5461,7 +5477,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5482,7 +5498,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5503,7 +5519,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5524,7 +5540,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5545,7 +5561,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5566,7 +5582,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5587,7 +5603,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5608,7 +5624,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5629,7 +5645,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5650,7 +5666,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5671,7 +5687,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5692,7 +5708,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5713,7 +5729,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5734,7 +5750,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5755,7 +5771,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5776,7 +5792,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5797,7 +5813,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5818,7 +5834,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5839,7 +5855,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5860,7 +5876,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5881,7 +5897,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5890,7 +5906,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5899,7 +5915,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5908,7 +5924,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5917,7 +5933,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5926,7 +5942,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5935,7 +5951,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5944,7 +5960,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5953,7 +5969,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5962,7 +5978,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5971,7 +5987,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5980,7 +5996,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5989,7 +6005,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5998,7 +6014,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6007,7 +6023,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6016,7 +6032,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6025,7 +6041,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6034,7 +6050,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6043,7 +6059,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6052,7 +6068,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6061,7 +6077,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6070,7 +6086,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6079,7 +6095,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6088,7 +6104,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6097,7 +6113,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6106,7 +6122,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6115,7 +6131,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6124,7 +6140,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6133,7 +6149,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6142,7 +6158,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/ENRIQUEZ, ANABEL ORTEGA.xlsx
+++ b/ENRIQUEZ, ANABEL ORTEGA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>3/17,20/2023</t>
   </si>
 </sst>
 </file>
@@ -618,6 +621,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,9 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,7 +936,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,7 +979,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1043,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,7 +1103,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1169,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1232,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1330,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1389,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1454,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1497,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1572,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +1758,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1824,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1882,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1948,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2004,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2079,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2122,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2188,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2244,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2692,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,64 +2714,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>43647</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2794,18 +2797,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2852,7 +2855,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.75</v>
+        <v>37.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2862,7 +2865,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.75</v>
+        <v>48.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3876,7 +3879,7 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="61">
+      <c r="A58" s="50">
         <v>44927</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -3902,15 +3905,19 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>44958</v>
+      </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -3918,20 +3925,30 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+      <c r="A60" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39">
+        <v>2</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
@@ -5116,17 +5133,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5201,12 +5218,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/ENRIQUEZ, ANABEL ORTEGA.xlsx
+++ b/ENRIQUEZ, ANABEL ORTEGA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2690,9 +2690,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2855,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.25</v>
+        <v>39.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2865,7 +2865,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.25</v>
+        <v>48.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3951,15 +3951,19 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>45017</v>
+      </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -3967,24 +3971,38 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="A62" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="39"/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H62" s="39">
+        <v>1</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="49">
+        <v>45076</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
@@ -3993,10 +4011,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="39">
+        <v>1</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="49">
+        <v>45082</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>

--- a/ENRIQUEZ, ANABEL ORTEGA.xlsx
+++ b/ENRIQUEZ, ANABEL ORTEGA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>3/17,20/2023</t>
+  </si>
+  <si>
+    <t>7/13-14/2023</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,7 +982,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,7 +1046,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1106,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1172,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1235,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1333,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1392,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1457,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1500,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1575,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1761,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1827,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1885,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1951,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2007,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2082,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2125,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2191,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2247,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2695,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2868,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.75</v>
+        <v>46.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4021,8 +4024,12 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -4031,10 +4038,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>2</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>

--- a/ENRIQUEZ, ANABEL ORTEGA.xlsx
+++ b/ENRIQUEZ, ANABEL ORTEGA.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>7/13-14/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,7 +985,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,7 +1049,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1109,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,7 +1175,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1238,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1336,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1395,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1460,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1503,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1578,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1764,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1830,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1888,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1954,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2010,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2085,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2128,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2194,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2250,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2698,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4052,9 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
@@ -4061,7 +4066,9 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="49">
+        <v>45139</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
